--- a/backend/fms_core/tests/valid_templates/Sample_extraction_v4_4_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Sample_extraction_v4_4_0.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="485">
   <si>
     <t xml:space="preserve">Nucleic Acid Extraction template</t>
   </si>
@@ -83,6 +83,12 @@
     <t xml:space="preserve">Source Container Coord</t>
   </si>
   <si>
+    <t xml:space="preserve">Source Container Location Barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source Container Location Coord</t>
+  </si>
+  <si>
     <t xml:space="preserve">Destination Container Barcode</t>
   </si>
   <si>
@@ -207,6 +213,12 @@
   </si>
   <si>
     <t xml:space="preserve">Coordinate of the source sample within the container. Using the alphanumerical coordinates names (e.g. A01).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique barcode of the parent of the container holding the source sample. Provided by prefilling for validation. Do not fill manually.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinate of the source sample container within its parent container. Using the alphanumerical coordinates names (e.g. A01). Provided by prefilling for validation.  Do not fill manually.</t>
   </si>
   <si>
     <t xml:space="preserve">Unique barcode of the container holding the extracted sample.</t>
@@ -1504,7 +1516,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1573,6 +1585,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1624,7 +1644,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1662,14 +1682,21 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="mediumDashed"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
       <top style="medium"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
+      <right style="mediumDashed"/>
       <top style="medium"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -1718,14 +1745,14 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="mediumDashed"/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
+      <right style="mediumDashed"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -1774,14 +1801,14 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="mediumDashed"/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
+      <right style="mediumDashed"/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
@@ -1826,7 +1853,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1887,7 +1914,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1899,11 +1930,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1915,8 +1946,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1927,11 +1958,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1939,19 +1974,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1963,8 +1994,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1975,23 +2006,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2003,19 +2034,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2096,7 +2131,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH1048576"/>
+  <dimension ref="A1:AJ708"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -2104,7 +2139,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.24"/>
@@ -2112,15 +2147,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="26.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="34.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="29.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="24.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="54.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="19" style="0" width="9.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="34.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="26.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="34.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="29.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="23.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="54.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="21" style="0" width="9.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2147,10 +2184,10 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="T3" s="8"/>
-      <c r="X3" s="8"/>
+      <c r="V3" s="8"/>
       <c r="Z3" s="8"/>
-      <c r="AH3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AJ3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
@@ -2166,16 +2203,18 @@
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2201,2043 +2240,2241 @@
       <c r="G5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="R5" s="18" t="s">
         <v>21</v>
       </c>
+      <c r="S5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="19" t="n">
+      <c r="A6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="C6" s="20" t="n">
+      <c r="C6" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="23" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="J6" s="25"/>
+      <c r="K6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="25" t="n">
+      <c r="M6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="N6" s="25" t="n">
+      <c r="P6" s="27" t="n">
         <v>0.3</v>
       </c>
-      <c r="O6" s="26"/>
-      <c r="P6" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="28" t="s">
-        <v>29</v>
-      </c>
+      <c r="Q6" s="28"/>
       <c r="R6" s="29" t="s">
         <v>30</v>
       </c>
+      <c r="S6" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="19" t="n">
+      <c r="A7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="21" t="n">
         <v>90</v>
       </c>
-      <c r="C7" s="20" t="n">
+      <c r="C7" s="22" t="n">
         <v>15</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="23" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="25" t="n">
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="N7" s="25" t="n">
+      <c r="P7" s="27" t="n">
         <v>0.3</v>
       </c>
-      <c r="O7" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>28</v>
-      </c>
       <c r="Q7" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R7" s="29" t="s">
         <v>30</v>
       </c>
+      <c r="S7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="19" t="n">
+      <c r="A8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="C8" s="20" t="n">
+      <c r="C8" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="24" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="25" t="n">
+      <c r="K8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="N8" s="25" t="n">
+      <c r="P8" s="27" t="n">
         <v>0.3</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>41</v>
-      </c>
+      <c r="Q8" s="28"/>
       <c r="R8" s="29" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="23"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="28"/>
       <c r="R9" s="29"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="23"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="27"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="28"/>
       <c r="R10" s="29"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="23"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="28"/>
       <c r="R11" s="29"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="23"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="27"/>
       <c r="P12" s="27"/>
       <c r="Q12" s="28"/>
       <c r="R12" s="29"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="23"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
       <c r="P13" s="27"/>
       <c r="Q13" s="28"/>
       <c r="R13" s="29"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="23"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="27"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="28"/>
       <c r="R14" s="29"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="23"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="27"/>
       <c r="P15" s="27"/>
       <c r="Q15" s="28"/>
       <c r="R15" s="29"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="23"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="27"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="28"/>
       <c r="R16" s="29"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="23"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="27"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="28"/>
       <c r="R17" s="29"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="23"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="27"/>
       <c r="P18" s="27"/>
       <c r="Q18" s="28"/>
       <c r="R18" s="29"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="23"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
       <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="27"/>
       <c r="P19" s="27"/>
       <c r="Q19" s="28"/>
       <c r="R19" s="29"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="31"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="23"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
       <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="27"/>
       <c r="P20" s="27"/>
       <c r="Q20" s="28"/>
       <c r="R20" s="29"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="31"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="23"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
       <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="27"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="28"/>
       <c r="R21" s="29"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="23"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="27"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="28"/>
       <c r="R22" s="29"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="31"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="23"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
       <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="27"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="28"/>
       <c r="R23" s="29"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="31"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="23"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
       <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="27"/>
       <c r="P24" s="27"/>
       <c r="Q24" s="28"/>
       <c r="R24" s="29"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="31"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="23"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="27"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="28"/>
       <c r="R25" s="29"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="31"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="23"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="27"/>
       <c r="P26" s="27"/>
       <c r="Q26" s="28"/>
       <c r="R26" s="29"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="31"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="23"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="27"/>
       <c r="P27" s="27"/>
       <c r="Q27" s="28"/>
       <c r="R27" s="29"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="31"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="23"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="26"/>
       <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="28"/>
       <c r="R28" s="29"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="31"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="23"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
       <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="27"/>
       <c r="P29" s="27"/>
       <c r="Q29" s="28"/>
       <c r="R29" s="29"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="31"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="23"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="26"/>
       <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="27"/>
       <c r="P30" s="27"/>
       <c r="Q30" s="28"/>
       <c r="R30" s="29"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="31"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="23"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="26"/>
       <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="27"/>
       <c r="P31" s="27"/>
       <c r="Q31" s="28"/>
       <c r="R31" s="29"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="31"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="23"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="26"/>
       <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="27"/>
       <c r="P32" s="27"/>
       <c r="Q32" s="28"/>
       <c r="R32" s="29"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="31"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="23"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="26"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="27"/>
       <c r="P33" s="27"/>
       <c r="Q33" s="28"/>
       <c r="R33" s="29"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="31"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="23"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="26"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="27"/>
       <c r="P34" s="27"/>
       <c r="Q34" s="28"/>
       <c r="R34" s="29"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="23"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="26"/>
       <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="27"/>
       <c r="P35" s="27"/>
       <c r="Q35" s="28"/>
       <c r="R35" s="29"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="31"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="23"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="26"/>
       <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="27"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="28"/>
       <c r="R36" s="29"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="31"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="23"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="26"/>
       <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="27"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="28"/>
       <c r="R37" s="29"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="31"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="23"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="26"/>
       <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="27"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="28"/>
       <c r="R38" s="29"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="31"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="23"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="26"/>
       <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="27"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="28"/>
       <c r="R39" s="29"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="31"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="23"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="26"/>
       <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="27"/>
       <c r="P40" s="27"/>
       <c r="Q40" s="28"/>
       <c r="R40" s="29"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="31"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="23"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="26"/>
       <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="27"/>
       <c r="P41" s="27"/>
       <c r="Q41" s="28"/>
       <c r="R41" s="29"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="31"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="23"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="26"/>
       <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="27"/>
       <c r="P42" s="27"/>
       <c r="Q42" s="28"/>
       <c r="R42" s="29"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="31"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="23"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="26"/>
       <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="27"/>
       <c r="P43" s="27"/>
       <c r="Q43" s="28"/>
       <c r="R43" s="29"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="31"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="23"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="26"/>
       <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="27"/>
       <c r="P44" s="27"/>
       <c r="Q44" s="28"/>
       <c r="R44" s="29"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="31"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="23"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="26"/>
       <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="27"/>
       <c r="P45" s="27"/>
       <c r="Q45" s="28"/>
       <c r="R45" s="29"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="31"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="23"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="26"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="27"/>
       <c r="P46" s="27"/>
       <c r="Q46" s="28"/>
       <c r="R46" s="29"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="31"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="23"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="26"/>
       <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="27"/>
       <c r="P47" s="27"/>
       <c r="Q47" s="28"/>
       <c r="R47" s="29"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="31"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="23"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="26"/>
       <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="27"/>
       <c r="P48" s="27"/>
       <c r="Q48" s="28"/>
       <c r="R48" s="29"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="31"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="23"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="26"/>
       <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="27"/>
       <c r="P49" s="27"/>
       <c r="Q49" s="28"/>
       <c r="R49" s="29"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="31"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="23"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="26"/>
       <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="27"/>
       <c r="P50" s="27"/>
       <c r="Q50" s="28"/>
       <c r="R50" s="29"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="31"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="23"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="26"/>
       <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="27"/>
       <c r="P51" s="27"/>
       <c r="Q51" s="28"/>
       <c r="R51" s="29"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="31"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="23"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="26"/>
       <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="27"/>
       <c r="P52" s="27"/>
       <c r="Q52" s="28"/>
       <c r="R52" s="29"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="31"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="23"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="26"/>
       <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="27"/>
       <c r="P53" s="27"/>
       <c r="Q53" s="28"/>
       <c r="R53" s="29"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="31"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="23"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="26"/>
       <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="27"/>
       <c r="P54" s="27"/>
       <c r="Q54" s="28"/>
       <c r="R54" s="29"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="31"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="23"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="26"/>
       <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="27"/>
       <c r="P55" s="27"/>
       <c r="Q55" s="28"/>
       <c r="R55" s="29"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="31"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="23"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="26"/>
       <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="27"/>
       <c r="P56" s="27"/>
       <c r="Q56" s="28"/>
       <c r="R56" s="29"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="31"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="18"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="23"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="26"/>
       <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="27"/>
       <c r="P57" s="27"/>
       <c r="Q57" s="28"/>
       <c r="R57" s="29"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="31"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="18"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="23"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="26"/>
       <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="27"/>
       <c r="P58" s="27"/>
       <c r="Q58" s="28"/>
       <c r="R58" s="29"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="31"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="18"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="23"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="26"/>
       <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="27"/>
       <c r="P59" s="27"/>
       <c r="Q59" s="28"/>
       <c r="R59" s="29"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="31"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="23"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="26"/>
       <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="27"/>
       <c r="P60" s="27"/>
       <c r="Q60" s="28"/>
       <c r="R60" s="29"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="31"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="18"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="23"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="26"/>
       <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="27"/>
       <c r="P61" s="27"/>
       <c r="Q61" s="28"/>
       <c r="R61" s="29"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="31"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="23"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="26"/>
       <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="27"/>
       <c r="P62" s="27"/>
       <c r="Q62" s="28"/>
       <c r="R62" s="29"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="31"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="23"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="26"/>
       <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="27"/>
       <c r="P63" s="27"/>
       <c r="Q63" s="28"/>
       <c r="R63" s="29"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="31"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="23"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="26"/>
       <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="26"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="27"/>
       <c r="P64" s="27"/>
       <c r="Q64" s="28"/>
       <c r="R64" s="29"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="31"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="18"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="23"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="26"/>
       <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="26"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="27"/>
       <c r="P65" s="27"/>
       <c r="Q65" s="28"/>
       <c r="R65" s="29"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="31"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="18"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="23"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="26"/>
       <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="26"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="27"/>
       <c r="P66" s="27"/>
       <c r="Q66" s="28"/>
       <c r="R66" s="29"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="31"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="18"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="23"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="26"/>
       <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="27"/>
       <c r="P67" s="27"/>
       <c r="Q67" s="28"/>
       <c r="R67" s="29"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="31"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="18"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="23"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="26"/>
       <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="27"/>
       <c r="P68" s="27"/>
       <c r="Q68" s="28"/>
       <c r="R68" s="29"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="31"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="18"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="23"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="26"/>
       <c r="M69" s="25"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="27"/>
       <c r="P69" s="27"/>
       <c r="Q69" s="28"/>
       <c r="R69" s="29"/>
+      <c r="S69" s="30"/>
+      <c r="T69" s="31"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="18"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="23"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="26"/>
       <c r="M70" s="25"/>
-      <c r="N70" s="25"/>
-      <c r="O70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="27"/>
       <c r="P70" s="27"/>
       <c r="Q70" s="28"/>
       <c r="R70" s="29"/>
+      <c r="S70" s="30"/>
+      <c r="T70" s="31"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="18"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="23"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="26"/>
       <c r="M71" s="25"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="26"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="27"/>
       <c r="P71" s="27"/>
       <c r="Q71" s="28"/>
       <c r="R71" s="29"/>
+      <c r="S71" s="30"/>
+      <c r="T71" s="31"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="18"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="23"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="26"/>
       <c r="M72" s="25"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="26"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="27"/>
       <c r="P72" s="27"/>
       <c r="Q72" s="28"/>
       <c r="R72" s="29"/>
+      <c r="S72" s="30"/>
+      <c r="T72" s="31"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="18"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="23"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="26"/>
       <c r="M73" s="25"/>
-      <c r="N73" s="25"/>
-      <c r="O73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="27"/>
       <c r="P73" s="27"/>
       <c r="Q73" s="28"/>
       <c r="R73" s="29"/>
+      <c r="S73" s="30"/>
+      <c r="T73" s="31"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="18"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="23"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="26"/>
       <c r="M74" s="25"/>
-      <c r="N74" s="25"/>
-      <c r="O74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="27"/>
       <c r="P74" s="27"/>
       <c r="Q74" s="28"/>
       <c r="R74" s="29"/>
+      <c r="S74" s="30"/>
+      <c r="T74" s="31"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="18"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="23"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="26"/>
       <c r="M75" s="25"/>
-      <c r="N75" s="25"/>
-      <c r="O75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="27"/>
       <c r="P75" s="27"/>
       <c r="Q75" s="28"/>
       <c r="R75" s="29"/>
+      <c r="S75" s="30"/>
+      <c r="T75" s="31"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="18"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="23"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="26"/>
       <c r="M76" s="25"/>
-      <c r="N76" s="25"/>
-      <c r="O76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="27"/>
       <c r="P76" s="27"/>
       <c r="Q76" s="28"/>
       <c r="R76" s="29"/>
+      <c r="S76" s="30"/>
+      <c r="T76" s="31"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="18"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="23"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="26"/>
       <c r="M77" s="25"/>
-      <c r="N77" s="25"/>
-      <c r="O77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="27"/>
       <c r="P77" s="27"/>
       <c r="Q77" s="28"/>
       <c r="R77" s="29"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="31"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="18"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="23"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="26"/>
       <c r="M78" s="25"/>
-      <c r="N78" s="25"/>
-      <c r="O78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="27"/>
       <c r="P78" s="27"/>
       <c r="Q78" s="28"/>
       <c r="R78" s="29"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="31"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="18"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="23"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="26"/>
       <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
-      <c r="O79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="27"/>
       <c r="P79" s="27"/>
       <c r="Q79" s="28"/>
       <c r="R79" s="29"/>
+      <c r="S79" s="30"/>
+      <c r="T79" s="31"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="18"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="23"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="26"/>
       <c r="M80" s="25"/>
-      <c r="N80" s="25"/>
-      <c r="O80" s="26"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="27"/>
       <c r="P80" s="27"/>
       <c r="Q80" s="28"/>
       <c r="R80" s="29"/>
+      <c r="S80" s="30"/>
+      <c r="T80" s="31"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="18"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="23"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="26"/>
       <c r="M81" s="25"/>
-      <c r="N81" s="25"/>
-      <c r="O81" s="26"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="27"/>
       <c r="P81" s="27"/>
       <c r="Q81" s="28"/>
       <c r="R81" s="29"/>
+      <c r="S81" s="30"/>
+      <c r="T81" s="31"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="18"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="23"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="26"/>
       <c r="M82" s="25"/>
-      <c r="N82" s="25"/>
-      <c r="O82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="27"/>
       <c r="P82" s="27"/>
       <c r="Q82" s="28"/>
       <c r="R82" s="29"/>
+      <c r="S82" s="30"/>
+      <c r="T82" s="31"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="18"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="23"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="26"/>
       <c r="M83" s="25"/>
-      <c r="N83" s="25"/>
-      <c r="O83" s="26"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="27"/>
       <c r="P83" s="27"/>
       <c r="Q83" s="28"/>
       <c r="R83" s="29"/>
+      <c r="S83" s="30"/>
+      <c r="T83" s="31"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="18"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="23"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="26"/>
       <c r="M84" s="25"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="26"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="27"/>
       <c r="P84" s="27"/>
       <c r="Q84" s="28"/>
       <c r="R84" s="29"/>
+      <c r="S84" s="30"/>
+      <c r="T84" s="31"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="18"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="23"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="26"/>
       <c r="M85" s="25"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="26"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="27"/>
       <c r="P85" s="27"/>
       <c r="Q85" s="28"/>
       <c r="R85" s="29"/>
+      <c r="S85" s="30"/>
+      <c r="T85" s="31"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="18"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="23"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="26"/>
       <c r="M86" s="25"/>
-      <c r="N86" s="25"/>
-      <c r="O86" s="26"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="27"/>
       <c r="P86" s="27"/>
       <c r="Q86" s="28"/>
       <c r="R86" s="29"/>
+      <c r="S86" s="30"/>
+      <c r="T86" s="31"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="18"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="23"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="26"/>
       <c r="M87" s="25"/>
-      <c r="N87" s="25"/>
-      <c r="O87" s="26"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="27"/>
       <c r="P87" s="27"/>
       <c r="Q87" s="28"/>
       <c r="R87" s="29"/>
+      <c r="S87" s="30"/>
+      <c r="T87" s="31"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="18"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="23"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="26"/>
       <c r="M88" s="25"/>
-      <c r="N88" s="25"/>
-      <c r="O88" s="26"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="27"/>
       <c r="P88" s="27"/>
       <c r="Q88" s="28"/>
       <c r="R88" s="29"/>
+      <c r="S88" s="30"/>
+      <c r="T88" s="31"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="18"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="23"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="26"/>
       <c r="M89" s="25"/>
-      <c r="N89" s="25"/>
-      <c r="O89" s="26"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="27"/>
       <c r="P89" s="27"/>
       <c r="Q89" s="28"/>
       <c r="R89" s="29"/>
+      <c r="S89" s="30"/>
+      <c r="T89" s="31"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="18"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="24"/>
-      <c r="L90" s="23"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="26"/>
       <c r="M90" s="25"/>
-      <c r="N90" s="25"/>
-      <c r="O90" s="26"/>
+      <c r="N90" s="26"/>
+      <c r="O90" s="27"/>
       <c r="P90" s="27"/>
       <c r="Q90" s="28"/>
       <c r="R90" s="29"/>
+      <c r="S90" s="30"/>
+      <c r="T90" s="31"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="18"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="23"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="26"/>
       <c r="M91" s="25"/>
-      <c r="N91" s="25"/>
-      <c r="O91" s="26"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="27"/>
       <c r="P91" s="27"/>
       <c r="Q91" s="28"/>
       <c r="R91" s="29"/>
+      <c r="S91" s="30"/>
+      <c r="T91" s="31"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="18"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="23"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="26"/>
       <c r="M92" s="25"/>
-      <c r="N92" s="25"/>
-      <c r="O92" s="26"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="27"/>
       <c r="P92" s="27"/>
       <c r="Q92" s="28"/>
       <c r="R92" s="29"/>
+      <c r="S92" s="30"/>
+      <c r="T92" s="31"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="18"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="23"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="26"/>
       <c r="M93" s="25"/>
-      <c r="N93" s="25"/>
-      <c r="O93" s="26"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="27"/>
       <c r="P93" s="27"/>
       <c r="Q93" s="28"/>
       <c r="R93" s="29"/>
+      <c r="S93" s="30"/>
+      <c r="T93" s="31"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="18"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="23"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="23"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="26"/>
       <c r="M94" s="25"/>
-      <c r="N94" s="25"/>
-      <c r="O94" s="26"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="27"/>
       <c r="P94" s="27"/>
       <c r="Q94" s="28"/>
       <c r="R94" s="29"/>
+      <c r="S94" s="30"/>
+      <c r="T94" s="31"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="18"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="23"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="26"/>
       <c r="M95" s="25"/>
-      <c r="N95" s="25"/>
-      <c r="O95" s="26"/>
+      <c r="N95" s="26"/>
+      <c r="O95" s="27"/>
       <c r="P95" s="27"/>
       <c r="Q95" s="28"/>
       <c r="R95" s="29"/>
+      <c r="S95" s="30"/>
+      <c r="T95" s="31"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="18"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="23"/>
+      <c r="A96" s="20"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="26"/>
       <c r="M96" s="25"/>
-      <c r="N96" s="25"/>
-      <c r="O96" s="26"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="27"/>
       <c r="P96" s="27"/>
       <c r="Q96" s="28"/>
       <c r="R96" s="29"/>
+      <c r="S96" s="30"/>
+      <c r="T96" s="31"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="18"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="23"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="26"/>
       <c r="M97" s="25"/>
-      <c r="N97" s="25"/>
-      <c r="O97" s="26"/>
+      <c r="N97" s="26"/>
+      <c r="O97" s="27"/>
       <c r="P97" s="27"/>
       <c r="Q97" s="28"/>
       <c r="R97" s="29"/>
+      <c r="S97" s="30"/>
+      <c r="T97" s="31"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="18"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="23"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="23"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="26"/>
       <c r="M98" s="25"/>
-      <c r="N98" s="25"/>
-      <c r="O98" s="26"/>
+      <c r="N98" s="26"/>
+      <c r="O98" s="27"/>
       <c r="P98" s="27"/>
       <c r="Q98" s="28"/>
       <c r="R98" s="29"/>
+      <c r="S98" s="30"/>
+      <c r="T98" s="31"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="18"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="23"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="26"/>
       <c r="M99" s="25"/>
-      <c r="N99" s="25"/>
-      <c r="O99" s="26"/>
+      <c r="N99" s="26"/>
+      <c r="O99" s="27"/>
       <c r="P99" s="27"/>
       <c r="Q99" s="28"/>
       <c r="R99" s="29"/>
+      <c r="S99" s="30"/>
+      <c r="T99" s="31"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="18"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="23"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="23"/>
+      <c r="A100" s="20"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="26"/>
       <c r="M100" s="25"/>
-      <c r="N100" s="25"/>
-      <c r="O100" s="26"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="27"/>
       <c r="P100" s="27"/>
       <c r="Q100" s="28"/>
       <c r="R100" s="29"/>
+      <c r="S100" s="30"/>
+      <c r="T100" s="31"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="30"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="35"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="35"/>
+      <c r="A101" s="32"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="38"/>
       <c r="M101" s="37"/>
-      <c r="N101" s="37"/>
-      <c r="O101" s="36"/>
-      <c r="P101" s="38"/>
-      <c r="Q101" s="39"/>
+      <c r="N101" s="38"/>
+      <c r="O101" s="39"/>
+      <c r="P101" s="39"/>
+      <c r="Q101" s="37"/>
       <c r="R101" s="40"/>
+      <c r="S101" s="41"/>
+      <c r="T101" s="42"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4846,68 +5083,42 @@
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A9:A101" type="list">
+  <dataValidations count="9">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:A101" type="list">
       <formula1>"DNA,RNA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O9:O101" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:Q101" type="list">
       <formula1>"YES"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K9:K101" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M6:M101" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F9:F101 L9:L101" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F101 N6:N101" type="list">
       <formula1>Index!$A$2:$A$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J9:J101" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L6:L101" type="list">
       <formula1>Index!$D$2:$D$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R9:R101" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T6:T101" type="list">
       <formula1>Index!$H$2:$H$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H9:H101" type="list">
-      <formula1>IF($J6="384-well plate",Index!$B$2:$B$385,IF($J6="96-well plate", Index!$A$2:$A$97, ""))</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:A8" type="list">
-      <formula1>"DNA,RNA"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F8 L6:L8" type="list">
-      <formula1>Info!$A$2:$A$97</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6:H8" type="list">
-      <formula1>IF($I9="384-well plate",Info!$B$2:$B$385,IF($I9="96-well plate", Info!$A$2:$A$97, ""))</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J8" type="list">
-      <formula1>Info!$D$2:$D$11</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K8" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O6:O8" type="list">
-      <formula1>"YES"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R6:R8" type="list">
-      <formula1>Info!$H$2:$H$4</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J101" type="list">
+      <formula1>IF($L6="384-well plate",Index!$B$2:$B$385,IF($L6="96-well plate", Index!$A$2:$A$97, ""))</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6:B101" type="none">
       <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:H101" type="none">
+      <formula1>Index!$A$2:$A$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -4926,200 +5137,216 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
-        <v>43</v>
+      <c r="A1" s="43" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
-        <v>44</v>
+      <c r="A3" s="44" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
-        <v>45</v>
+      <c r="A5" s="45" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="42"/>
+      <c r="B6" s="44"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="46"/>
+      <c r="B7" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="48"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="46"/>
+      <c r="B8" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="48"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="46"/>
+      <c r="B9" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="48"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="46"/>
+      <c r="B10" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="48"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="46"/>
+      <c r="B11" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="48"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="46"/>
+      <c r="B12" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="48"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="46"/>
+      <c r="B13" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="48"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="46"/>
+      <c r="B14" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="48"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="46"/>
+      <c r="B15" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="48"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="46"/>
+      <c r="B16" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="48"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="46"/>
+      <c r="B17" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="48"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="46"/>
+      <c r="B18" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="48"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="46"/>
+      <c r="B19" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="48"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="46"/>
+      <c r="B20" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="48"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="46"/>
+      <c r="B21" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="48"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="46"/>
+      <c r="B22" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="48"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="46"/>
+      <c r="B23" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="48"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="46"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B24" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="48"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="48"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="48"/>
+    </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5136,6 +5363,8 @@
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5158,7 +5387,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.38"/>
@@ -5173,2338 +5402,2338 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>30</v>
+        <v>78</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>42</v>
+        <v>89</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="4" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B201" s="4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B202" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B203" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B204" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B205" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B206" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B207" s="4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B208" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B209" s="4" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B210" s="4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B211" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B212" s="4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B213" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B214" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B215" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B216" s="4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B217" s="4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B218" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B219" s="4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B220" s="4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B221" s="4" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B222" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B223" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B224" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B225" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B226" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B227" s="4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B228" s="4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B229" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B230" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B231" s="4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B232" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B233" s="4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B234" s="4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B235" s="4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B236" s="4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B237" s="4" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B238" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B239" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B240" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B241" s="4" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B242" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B243" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B244" s="4" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B245" s="4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B246" s="4" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B247" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B248" s="4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B249" s="4" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B250" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B251" s="4" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B252" s="4" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B253" s="4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B254" s="4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B255" s="4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B256" s="4" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B257" s="4" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B258" s="4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B259" s="4" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B260" s="4" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B261" s="4" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B262" s="4" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B263" s="4" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B264" s="4" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B265" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B266" s="4" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B267" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B268" s="4" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B269" s="4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B270" s="4" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B271" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B272" s="4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B273" s="4" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B274" s="4" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B275" s="4" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B276" s="4" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B277" s="4" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B278" s="4" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B279" s="4" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B280" s="4" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B281" s="4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B282" s="4" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B283" s="4" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B284" s="4" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B285" s="4" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B286" s="4" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B287" s="4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B288" s="4" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B289" s="4" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B290" s="4" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B291" s="4" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B292" s="4" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B293" s="4" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B294" s="4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B295" s="4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B296" s="4" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B297" s="4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B298" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B299" s="4" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B300" s="4" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B301" s="4" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B302" s="4" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B303" s="4" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B304" s="4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B305" s="4" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B306" s="4" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B307" s="4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B308" s="4" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B309" s="4" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B310" s="4" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B311" s="4" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B312" s="4" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B313" s="4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B314" s="4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B315" s="4" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B316" s="4" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B317" s="4" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B318" s="4" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B319" s="4" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B320" s="4" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B321" s="4" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B322" s="4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B323" s="4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B324" s="4" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B325" s="4" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B326" s="4" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B327" s="4" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B328" s="4" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B329" s="4" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B330" s="4" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B331" s="4" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B332" s="4" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B333" s="4" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B334" s="4" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B335" s="4" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B336" s="4" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B337" s="4" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B338" s="4" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B339" s="4" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B340" s="4" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B341" s="4" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B342" s="4" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B343" s="4" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B344" s="4" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B345" s="4" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B346" s="4" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B347" s="4" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B348" s="4" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B349" s="4" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B350" s="4" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B351" s="4" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B352" s="4" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B353" s="4" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B354" s="4" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B355" s="4" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B356" s="4" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B357" s="4" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B358" s="4" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B359" s="4" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B360" s="4" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B361" s="4" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B362" s="4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B363" s="4" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B364" s="4" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B365" s="4" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B366" s="4" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B367" s="4" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B368" s="4" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B369" s="4" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B370" s="4" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B371" s="4" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B372" s="4" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B373" s="4" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B374" s="4" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B375" s="4" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B376" s="4" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B377" s="4" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B378" s="4" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B379" s="4" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B380" s="4" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B381" s="4" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B382" s="4" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B383" s="4" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B384" s="4" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B385" s="4" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/backend/fms_core/tests/valid_templates/Sample_extraction_v4_4_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Sample_extraction_v4_4_0.xlsx
@@ -83,10 +83,10 @@
     <t xml:space="preserve">Source Container Coord</t>
   </si>
   <si>
-    <t xml:space="preserve">Source Container Location Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Container Location Coord</t>
+    <t xml:space="preserve">Source Parent Container Barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source Parent Container Coord</t>
   </si>
   <si>
     <t xml:space="preserve">Destination Container Barcode</t>
@@ -2139,7 +2139,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.24"/>
@@ -2156,7 +2156,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="23.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="54.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="54.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="21" style="0" width="9.38"/>
   </cols>
   <sheetData>
@@ -5143,7 +5143,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.14"/>
   </cols>
@@ -5387,7 +5387,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.38"/>

--- a/backend/fms_core/tests/valid_templates/Sample_extraction_v4_4_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Sample_extraction_v4_4_0.xlsx
@@ -83,10 +83,10 @@
     <t xml:space="preserve">Source Container Coord</t>
   </si>
   <si>
-    <t xml:space="preserve">Source Container Location Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Container Location Coord</t>
+    <t xml:space="preserve">Source Parent Container Barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source Parent Container Coord</t>
   </si>
   <si>
     <t xml:space="preserve">Destination Container Barcode</t>
@@ -2150,7 +2150,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.24"/>
@@ -24331,7 +24331,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.14"/>
   </cols>
@@ -24575,7 +24575,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.38"/>
